--- a/Packliste_Template.xlsx
+++ b/Packliste_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioStarz\Desktop\MeinePacklistenApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioStarz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FEB0DC-9635-4305-94E4-7EF88D6679AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43AFDD-D75E-4398-A878-3D0E11331815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="24195" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Infos zu Kunde</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>Ersatzteil</t>
   </si>
+  <si>
+    <t>Techniker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -107,12 +110,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -330,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -388,13 +385,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,7 +743,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -757,7 +751,7 @@
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.265625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="3" customWidth="1"/>
@@ -765,19 +759,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="23.65" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="24"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="6"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
